--- a/游戏设计.xlsx
+++ b/游戏设计.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saier\Desktop\Mantis\Project1\Project1\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EF80F78-A192-43A1-84E8-89B3FA9A9BDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="24225" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="机制" sheetId="1" r:id="rId1"/>
@@ -21,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="87">
   <si>
     <t>机制 feature</t>
   </si>
@@ -38,18 +32,66 @@
     <t>notes</t>
   </si>
   <si>
+    <t>是否做</t>
+  </si>
+  <si>
     <t>猫砂系统，猫每隔一段时间在非紧张状态会去上厕所</t>
   </si>
   <si>
+    <t>比较重要</t>
+  </si>
+  <si>
+    <t>很棒</t>
+  </si>
+  <si>
     <t>猫在上厕所期间，警戒范围缩小，人太过靠近依然会警戒</t>
   </si>
   <si>
+    <t>是</t>
+  </si>
+  <si>
     <t>猫粮系统，猫每隔一段时间在非紧张状态会去上吃饭</t>
   </si>
   <si>
     <t>猫在吃饭期间，警戒范围缩小，人太过靠近依然会警戒</t>
   </si>
   <si>
+    <t>猫休息系统，猫吃完饭后会在附近的休息点待着不动</t>
+  </si>
+  <si>
+    <t>比没有好</t>
+  </si>
+  <si>
+    <t>挺好</t>
+  </si>
+  <si>
+    <t>待定</t>
+  </si>
+  <si>
+    <t>当猫为空闲状态且玩家没在警戒范围内时，猫会在房间内四处移动</t>
+  </si>
+  <si>
+    <t>必不可少</t>
+  </si>
+  <si>
+    <t>影响玩家进入房间的时机，比如门在中间，玩家进入时猫离左侧门近就会往左侧逃跑，反之亦然</t>
+  </si>
+  <si>
+    <t>猫警戒系统</t>
+  </si>
+  <si>
+    <t>人进入猫的警戒范围内，猫会试图逃跑</t>
+  </si>
+  <si>
+    <t>人耐力系统</t>
+  </si>
+  <si>
+    <t>一般</t>
+  </si>
+  <si>
+    <t>按shift（？）进入跑步，人跑步比猫快，但会消耗耐力，耐力为0不可跑步并需要时间恢复</t>
+  </si>
+  <si>
     <t>猫道，小门</t>
   </si>
   <si>
@@ -99,106 +141,154 @@
   </si>
   <si>
     <t>可以移动屋内的纸箱挡住部分通道，限制猫的活动范围</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人进入猫的警戒范围内，猫会试图逃跑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
   </si>
   <si>
     <t>房间类型：阳台</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>地图右侧为露天的阳台，猫可以在阳台自由上下移动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>影响玩家进入房间的时机，比如门在中间，玩家进入时猫离左侧门近就会往左侧逃跑，反之亦然</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当猫为空闲状态且玩家没在警戒范围内时，猫会在房间内四处移动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>猫警戒系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>猫休息系统，猫吃完饭后会在附近的休息点待着不动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>休息点，猫吃完饭后在此休息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>休息点固定，为每个房间的椅子、床上、坐垫等位置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景物品：床</t>
   </si>
   <si>
     <t>猫路过时会躲到床底下</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>场景道具：扫地机器人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>打开扫地机器人，猫不敢靠近</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>场景道具：黄瓜怪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>猫不敢靠近黄瓜怪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>场景道具：拖把</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>拖地后地变滑，猫移动速度降低（人在上面不能跑）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>场景道具：毛巾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>毛巾放在地上猫经过时移动速度降低</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>场景物品：床</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>场景道具：虫子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>虫子在地上移动猫会被吸引，缩小警戒范围</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人耐力系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按shift（？）进入跑步，人跑步比猫快，但会消耗耐力，耐力为0不可跑步并需要时间恢复</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务 Task</t>
+  </si>
+  <si>
+    <t>难度</t>
+  </si>
+  <si>
+    <t>legend</t>
+  </si>
+  <si>
+    <t>简单</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>中等</t>
+  </si>
+  <si>
+    <t>困难</t>
+  </si>
+  <si>
+    <t>美术风格确立</t>
+  </si>
+  <si>
+    <t>素材收集和整理</t>
+  </si>
+  <si>
+    <t>场景搭建</t>
+  </si>
+  <si>
+    <t>场景配置</t>
+  </si>
+  <si>
+    <t>游戏流程逻辑</t>
+  </si>
+  <si>
+    <t>主界面ui</t>
+  </si>
+  <si>
+    <t>游戏界面ui</t>
+  </si>
+  <si>
+    <t>人物角色控制器</t>
+  </si>
+  <si>
+    <t>猫的ai</t>
+  </si>
+  <si>
+    <t>物品对象创建</t>
+  </si>
+  <si>
+    <t>物品功能</t>
+  </si>
+  <si>
+    <t>上下楼功能</t>
+  </si>
+  <si>
+    <t>门的功能</t>
+  </si>
+  <si>
+    <t>警戒功能</t>
+  </si>
+  <si>
+    <t>猫的行为</t>
+  </si>
+  <si>
+    <t>猫的动画</t>
+  </si>
+  <si>
+    <t>人物角色的动画</t>
+  </si>
+  <si>
+    <t>人的气泡反馈系统</t>
+  </si>
+  <si>
+    <t>要找2d图片素材</t>
+  </si>
+  <si>
+    <t>猫的气泡反馈系统</t>
+  </si>
+  <si>
+    <t>合计</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -207,22 +297,158 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="47">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -231,12 +457,276 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
+        <fgColor theme="5" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCACE6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -244,34 +734,359 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -529,245 +1344,904 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:E27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A2:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="47.33203125" customWidth="1"/>
-    <col min="4" max="4" width="49.109375" customWidth="1"/>
-    <col min="5" max="5" width="50.44140625" customWidth="1"/>
+    <col min="1" max="1" width="47.3333333333333" customWidth="1"/>
+    <col min="4" max="4" width="18.25" customWidth="1"/>
+    <col min="5" max="5" width="50.4416666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" s="9" customFormat="1" spans="1:6">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="9" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18">
+        <v>4</v>
+      </c>
+      <c r="E18" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19">
         <v>5</v>
       </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="E19" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E4" t="s">
+      <c r="C20" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7">
-        <v>5</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="D24">
+        <v>4</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="C25" s="11" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F25" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>46</v>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="21.625" customWidth="1"/>
+    <col min="2" max="2" width="29.5" customWidth="1"/>
+    <col min="3" max="3" width="28.75" customWidth="1"/>
+    <col min="4" max="4" width="18.625" customWidth="1"/>
+    <col min="5" max="5" width="37.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>77</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>78</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>79</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>80</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>81</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>82</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>83</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>85</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="35" s="1" customFormat="1" spans="1:4">
+      <c r="A35" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D35" s="1">
+        <f>SUM(D5:D34)</f>
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/游戏设计.xlsx
+++ b/游戏设计.xlsx
@@ -1,16 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saier\Desktop\Mantis\Project1\Project1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CA46241-6768-46C0-AED9-8A4A1D496046}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12540" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="机制" sheetId="1" r:id="rId1"/>
     <sheet name="任务" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -281,14 +287,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -304,151 +304,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <strike/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="47">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -457,7 +329,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.4"/>
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -469,55 +341,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.4"/>
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.8"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.6"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.6"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.8"/>
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.4"/>
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.4"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.6"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -529,204 +401,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.8"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -734,255 +420,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1028,65 +472,33 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1344,26 +756,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:F27"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47.3333333333333" customWidth="1"/>
-    <col min="4" max="4" width="18.25" customWidth="1"/>
-    <col min="5" max="5" width="50.4416666666667" customWidth="1"/>
+    <col min="1" max="1" width="47.33203125" customWidth="1"/>
+    <col min="4" max="4" width="18.21875" customWidth="1"/>
+    <col min="5" max="5" width="50.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" s="9" customFormat="1" spans="1:6">
+    <row r="2" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
@@ -1383,7 +795,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1403,7 +815,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1423,7 +835,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>13</v>
       </c>
@@ -1440,7 +852,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>17</v>
       </c>
@@ -1460,7 +872,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>20</v>
       </c>
@@ -1480,7 +892,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>22</v>
       </c>
@@ -1500,7 +912,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -1517,7 +929,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -1534,7 +946,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -1551,7 +963,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -1568,7 +980,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -1588,7 +1000,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -1605,7 +1017,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>32</v>
       </c>
@@ -1625,7 +1037,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>34</v>
       </c>
@@ -1645,7 +1057,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>36</v>
       </c>
@@ -1665,7 +1077,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -1685,27 +1097,27 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
-      <c r="A19" t="s">
+    <row r="19" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="15">
         <v>5</v>
       </c>
-      <c r="E19" s="12" t="s">
+      <c r="E19" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="F19" s="15" t="s">
+      <c r="F19" s="18" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>43</v>
       </c>
@@ -1725,7 +1137,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
         <v>45</v>
       </c>
@@ -1745,7 +1157,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
         <v>47</v>
       </c>
@@ -1765,47 +1177,47 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="12" t="s">
+    <row r="23" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C23" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D23">
-        <v>2</v>
-      </c>
-      <c r="E23" s="12" t="s">
+      <c r="D23" s="15">
+        <v>2</v>
+      </c>
+      <c r="E23" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="F23" s="15" t="s">
+      <c r="F23" s="18" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="12" t="s">
+    <row r="24" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="15">
         <v>4</v>
       </c>
-      <c r="E24" s="12" t="s">
+      <c r="E24" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="F24" s="15" t="s">
+      <c r="F24" s="18" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
         <v>53</v>
       </c>
@@ -1825,7 +1237,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
         <v>55</v>
       </c>
@@ -1845,7 +1257,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
         <v>57</v>
       </c>
@@ -1866,31 +1278,30 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.625" customWidth="1"/>
-    <col min="2" max="2" width="29.5" customWidth="1"/>
-    <col min="3" max="3" width="28.75" customWidth="1"/>
-    <col min="4" max="4" width="18.625" customWidth="1"/>
-    <col min="5" max="5" width="37.5" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" customWidth="1"/>
+    <col min="2" max="2" width="29.44140625" customWidth="1"/>
+    <col min="3" max="3" width="28.77734375" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" customWidth="1"/>
+    <col min="5" max="5" width="37.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>59</v>
       </c>
@@ -1907,7 +1318,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>61</v>
       </c>
@@ -1924,7 +1335,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>61</v>
       </c>
@@ -1941,7 +1352,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>61</v>
       </c>
@@ -1958,7 +1369,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>66</v>
       </c>
@@ -1972,7 +1383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>67</v>
       </c>
@@ -1986,7 +1397,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>68</v>
       </c>
@@ -2000,7 +1411,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>69</v>
       </c>
@@ -2014,7 +1425,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>70</v>
       </c>
@@ -2028,7 +1439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>71</v>
       </c>
@@ -2042,7 +1453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>72</v>
       </c>
@@ -2056,7 +1467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>73</v>
       </c>
@@ -2070,7 +1481,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>74</v>
       </c>
@@ -2084,7 +1495,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>75</v>
       </c>
@@ -2098,7 +1509,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>76</v>
       </c>
@@ -2112,7 +1523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>77</v>
       </c>
@@ -2126,7 +1537,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>78</v>
       </c>
@@ -2140,7 +1551,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>79</v>
       </c>
@@ -2154,7 +1565,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>80</v>
       </c>
@@ -2168,7 +1579,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>81</v>
       </c>
@@ -2182,7 +1593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>82</v>
       </c>
@@ -2196,7 +1607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>83</v>
       </c>
@@ -2213,7 +1624,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>85</v>
       </c>
@@ -2230,7 +1641,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="35" s="1" customFormat="1" spans="1:4">
+    <row r="35" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>86</v>
       </c>
@@ -2240,8 +1651,8 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/游戏设计.xlsx
+++ b/游戏设计.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="91">
   <si>
     <t>机制 feature</t>
   </si>
@@ -273,6 +273,18 @@
   </si>
   <si>
     <t>猫的气泡反馈系统</t>
+  </si>
+  <si>
+    <t>路径点移动</t>
+  </si>
+  <si>
+    <t>猫的跳跃</t>
+  </si>
+  <si>
+    <t>NavMeshAgent</t>
+  </si>
+  <si>
+    <t>猫转弯减速（惯性）</t>
   </si>
   <si>
     <t>合计</t>
@@ -283,12 +295,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -297,16 +309,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -319,16 +353,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -336,14 +362,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -358,30 +377,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -389,7 +385,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -403,17 +407,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -433,6 +431,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -440,15 +452,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="47">
+  <fills count="46">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -541,13 +546,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -559,55 +642,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -619,109 +720,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -736,16 +735,31 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -766,31 +780,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -806,11 +805,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -826,9 +823,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -840,10 +839,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -852,133 +851,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1019,7 +1018,7 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1">
@@ -1353,7 +1352,7 @@
   <dimension ref="A2:F27"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="F3" sqref="F3:F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1878,7 +1877,7 @@
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2230,9 +2229,53 @@
         <v>84</v>
       </c>
     </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>86</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>87</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>88</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>89</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
     <row r="35" s="1" customFormat="1" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D35" s="1">
         <f>SUM(D5:D34)</f>

--- a/游戏设计.xlsx
+++ b/游戏设计.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="24225" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="机制" sheetId="1" r:id="rId1"/>
     <sheet name="任务" sheetId="2" r:id="rId2"/>
+    <sheet name="activity" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="116">
   <si>
     <t>机制 feature</t>
   </si>
@@ -288,6 +289,81 @@
   </si>
   <si>
     <t>合计</t>
+  </si>
+  <si>
+    <t>activity</t>
+  </si>
+  <si>
+    <t>enter condition</t>
+  </si>
+  <si>
+    <t>happpen chance</t>
+  </si>
+  <si>
+    <t>priority</t>
+  </si>
+  <si>
+    <t>exit condition</t>
+  </si>
+  <si>
+    <t>duration</t>
+  </si>
+  <si>
+    <t>walkaround</t>
+  </si>
+  <si>
+    <t>chance to happen after walkaround/stay</t>
+  </si>
+  <si>
+    <t>fallback default</t>
+  </si>
+  <si>
+    <t>duration end</t>
+  </si>
+  <si>
+    <t>6~10</t>
+  </si>
+  <si>
+    <t>change room</t>
+  </si>
+  <si>
+    <t>check point reach</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>go toilet</t>
+  </si>
+  <si>
+    <t>toilet bar full</t>
+  </si>
+  <si>
+    <t>action done</t>
+  </si>
+  <si>
+    <t>go eat</t>
+  </si>
+  <si>
+    <t>eat bar full</t>
+  </si>
+  <si>
+    <t>check nearby things</t>
+  </si>
+  <si>
+    <t>trigger after walkaround/stay &amp;&amp; has item nearby</t>
+  </si>
+  <si>
+    <t>alert run</t>
+  </si>
+  <si>
+    <t>human detected</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>5~9</t>
   </si>
 </sst>
 </file>
@@ -296,9 +372,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -306,36 +382,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -353,8 +399,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -369,7 +455,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -377,15 +463,14 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -400,14 +485,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -415,11 +492,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -431,6 +507,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -439,15 +523,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -546,97 +622,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -648,42 +784,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -696,31 +796,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -734,17 +810,31 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -764,6 +854,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -779,30 +899,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -811,26 +907,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -839,10 +915,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -851,133 +927,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="38" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1876,7 +1952,7 @@
   <sheetPr/>
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
@@ -2287,4 +2363,187 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="32.875" customWidth="1"/>
+    <col min="2" max="2" width="62.125" customWidth="1"/>
+    <col min="3" max="3" width="18.625" customWidth="1"/>
+    <col min="5" max="5" width="30.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3">
+        <v>30</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>107</v>
+      </c>
+      <c r="F6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>112</v>
+      </c>
+      <c r="B7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8">
+        <v>30</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>100</v>
+      </c>
+      <c r="F8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/游戏设计.xlsx
+++ b/游戏设计.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="117">
   <si>
     <t>机制 feature</t>
   </si>
@@ -297,7 +297,7 @@
     <t>enter condition</t>
   </si>
   <si>
-    <t>happpen chance</t>
+    <t>happen chance</t>
   </si>
   <si>
     <t>priority</t>
@@ -312,7 +312,7 @@
     <t>walkaround</t>
   </si>
   <si>
-    <t>chance to happen after walkaround/stay</t>
+    <t>chance to happen after idle</t>
   </si>
   <si>
     <t>fallback default</t>
@@ -351,7 +351,7 @@
     <t>check nearby things</t>
   </si>
   <si>
-    <t>trigger after walkaround/stay &amp;&amp; has item nearby</t>
+    <t>trigger after idle &amp;&amp; has item nearby</t>
   </si>
   <si>
     <t>alert run</t>
@@ -364,6 +364,9 @@
   </si>
   <si>
     <t>5~9</t>
+  </si>
+  <si>
+    <t>idle:walkaround/stay/change room</t>
   </si>
 </sst>
 </file>
@@ -371,17 +374,52 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -393,7 +431,54 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -407,9 +492,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -424,82 +523,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -509,21 +532,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -538,6 +547,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -556,12 +571,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -622,181 +631,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -813,8 +822,68 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -839,71 +908,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -915,10 +924,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -927,147 +936,162 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="38" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
@@ -1438,23 +1462,23 @@
     <col min="5" max="5" width="50.4416666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" s="9" customFormat="1" spans="1:6">
-      <c r="A2" s="9" t="s">
+    <row r="2" s="14" customFormat="1" spans="1:6">
+      <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="14" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1462,10 +1486,10 @@
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="15" t="s">
         <v>8</v>
       </c>
       <c r="D3">
@@ -1474,7 +1498,7 @@
       <c r="E3" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="16" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1482,10 +1506,10 @@
       <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="15" t="s">
         <v>8</v>
       </c>
       <c r="D4">
@@ -1494,84 +1518,84 @@
       <c r="E4" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="16" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="16" t="s">
         <v>15</v>
       </c>
       <c r="D5">
         <v>2</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="18" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="16" t="s">
         <v>15</v>
       </c>
       <c r="D6">
         <v>3</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="16" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="16" t="s">
         <v>15</v>
       </c>
       <c r="D7">
         <v>3</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="16" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="19" t="s">
         <v>23</v>
       </c>
       <c r="D8">
         <v>2</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="16" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1579,16 +1603,16 @@
       <c r="A9" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="15" t="s">
         <v>8</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="16" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1596,16 +1620,16 @@
       <c r="A10" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="19" t="s">
         <v>23</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="F10" s="16" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1613,16 +1637,16 @@
       <c r="A11" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="16" t="s">
         <v>15</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F11" s="18" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1630,16 +1654,16 @@
       <c r="A12" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="16" t="s">
         <v>15</v>
       </c>
       <c r="D12">
         <v>2</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="F12" s="16" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1647,10 +1671,10 @@
       <c r="A13" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="16" t="s">
         <v>15</v>
       </c>
       <c r="D13">
@@ -1659,7 +1683,7 @@
       <c r="E13" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="11" t="s">
+      <c r="F13" s="16" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1667,16 +1691,16 @@
       <c r="A14" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="19" t="s">
         <v>23</v>
       </c>
       <c r="D14">
         <v>3</v>
       </c>
-      <c r="F14" s="13" t="s">
+      <c r="F14" s="18" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1684,10 +1708,10 @@
       <c r="A15" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="16" t="s">
         <v>15</v>
       </c>
       <c r="D15">
@@ -1696,7 +1720,7 @@
       <c r="E15" t="s">
         <v>33</v>
       </c>
-      <c r="F15" s="13" t="s">
+      <c r="F15" s="18" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1704,10 +1728,10 @@
       <c r="A16" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="19" t="s">
         <v>23</v>
       </c>
       <c r="D16">
@@ -1716,7 +1740,7 @@
       <c r="E16" t="s">
         <v>35</v>
       </c>
-      <c r="F16" s="11" t="s">
+      <c r="F16" s="16" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1724,10 +1748,10 @@
       <c r="A17" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="16" t="s">
         <v>15</v>
       </c>
       <c r="D17">
@@ -1736,7 +1760,7 @@
       <c r="E17" t="s">
         <v>37</v>
       </c>
-      <c r="F17" s="11" t="s">
+      <c r="F17" s="16" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1744,10 +1768,10 @@
       <c r="A18" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="16" t="s">
         <v>15</v>
       </c>
       <c r="D18">
@@ -1756,7 +1780,7 @@
       <c r="E18" t="s">
         <v>39</v>
       </c>
-      <c r="F18" s="13" t="s">
+      <c r="F18" s="18" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1764,179 +1788,179 @@
       <c r="A19" t="s">
         <v>40</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="19" t="s">
         <v>23</v>
       </c>
       <c r="D19">
         <v>5</v>
       </c>
-      <c r="E19" s="12" t="s">
+      <c r="E19" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="F19" s="15" t="s">
+      <c r="F19" s="20" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="19" t="s">
         <v>23</v>
       </c>
       <c r="D20">
         <v>2</v>
       </c>
-      <c r="E20" s="12" t="s">
+      <c r="E20" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="F20" s="11" t="s">
+      <c r="F20" s="16" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C21" s="19" t="s">
         <v>23</v>
       </c>
       <c r="D21">
         <v>2</v>
       </c>
-      <c r="E21" s="12" t="s">
+      <c r="E21" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="F21" s="13" t="s">
+      <c r="F21" s="18" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="16" t="s">
         <v>15</v>
       </c>
       <c r="D22">
         <v>3</v>
       </c>
-      <c r="E22" s="12" t="s">
+      <c r="E22" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="F22" s="13" t="s">
+      <c r="F22" s="18" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C23" s="19" t="s">
         <v>23</v>
       </c>
       <c r="D23">
         <v>2</v>
       </c>
-      <c r="E23" s="12" t="s">
+      <c r="E23" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="F23" s="15" t="s">
+      <c r="F23" s="20" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="15" t="s">
         <v>8</v>
       </c>
       <c r="D24">
         <v>4</v>
       </c>
-      <c r="E24" s="12" t="s">
+      <c r="E24" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="F24" s="15" t="s">
+      <c r="F24" s="20" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C25" s="16" t="s">
         <v>15</v>
       </c>
       <c r="D25">
         <v>2</v>
       </c>
-      <c r="E25" s="12" t="s">
+      <c r="E25" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="F25" s="13" t="s">
+      <c r="F25" s="18" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="16" t="s">
         <v>15</v>
       </c>
       <c r="D26">
         <v>2</v>
       </c>
-      <c r="E26" s="12" t="s">
+      <c r="E26" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="F26" s="13" t="s">
+      <c r="F26" s="18" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="16" t="s">
         <v>15</v>
       </c>
       <c r="D27">
         <v>2</v>
       </c>
-      <c r="E27" s="12" t="s">
+      <c r="E27" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="F27" s="13" t="s">
+      <c r="F27" s="18" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1966,19 +1990,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1986,10 +2010,10 @@
       <c r="A2" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D2">
@@ -2003,10 +2027,10 @@
       <c r="A3" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="11" t="s">
         <v>64</v>
       </c>
       <c r="D3">
@@ -2020,10 +2044,10 @@
       <c r="A4" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="13" t="s">
         <v>65</v>
       </c>
       <c r="D4">
@@ -2037,10 +2061,10 @@
       <c r="A5" t="s">
         <v>66</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D5">
@@ -2051,10 +2075,10 @@
       <c r="A6" t="s">
         <v>67</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D6">
@@ -2065,10 +2089,10 @@
       <c r="A7" t="s">
         <v>68</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D7">
@@ -2079,10 +2103,10 @@
       <c r="A8" t="s">
         <v>69</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="11" t="s">
         <v>64</v>
       </c>
       <c r="D8">
@@ -2093,10 +2117,10 @@
       <c r="A9" t="s">
         <v>70</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D9">
@@ -2107,10 +2131,10 @@
       <c r="A10" t="s">
         <v>71</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D10">
@@ -2121,10 +2145,10 @@
       <c r="A11" t="s">
         <v>72</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D11">
@@ -2135,10 +2159,10 @@
       <c r="A12" t="s">
         <v>73</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="11" t="s">
         <v>64</v>
       </c>
       <c r="D12">
@@ -2149,10 +2173,10 @@
       <c r="A13" t="s">
         <v>74</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="13" t="s">
         <v>65</v>
       </c>
       <c r="D13">
@@ -2163,10 +2187,10 @@
       <c r="A14" t="s">
         <v>75</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D14">
@@ -2177,10 +2201,10 @@
       <c r="A15" t="s">
         <v>76</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D15">
@@ -2191,10 +2215,10 @@
       <c r="A16" t="s">
         <v>77</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="13" t="s">
         <v>65</v>
       </c>
       <c r="D16">
@@ -2205,10 +2229,10 @@
       <c r="A17" t="s">
         <v>78</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="11" t="s">
         <v>64</v>
       </c>
       <c r="D17">
@@ -2219,10 +2243,10 @@
       <c r="A18" t="s">
         <v>79</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="11" t="s">
         <v>64</v>
       </c>
       <c r="D18">
@@ -2233,10 +2257,10 @@
       <c r="A19" t="s">
         <v>80</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D19">
@@ -2247,10 +2271,10 @@
       <c r="A20" t="s">
         <v>81</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D20">
@@ -2261,10 +2285,10 @@
       <c r="A21" t="s">
         <v>82</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D21">
@@ -2275,10 +2299,10 @@
       <c r="A22" t="s">
         <v>83</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D22">
@@ -2292,10 +2316,10 @@
       <c r="A23" t="s">
         <v>85</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D23">
@@ -2309,10 +2333,10 @@
       <c r="A25" t="s">
         <v>86</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="11" t="s">
         <v>64</v>
       </c>
     </row>
@@ -2320,10 +2344,10 @@
       <c r="A26" t="s">
         <v>87</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="13" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2331,10 +2355,10 @@
       <c r="A27" t="s">
         <v>88</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="11" t="s">
         <v>64</v>
       </c>
     </row>
@@ -2342,18 +2366,18 @@
       <c r="A28" t="s">
         <v>89</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="11" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="35" s="1" customFormat="1" spans="1:4">
-      <c r="A35" s="1" t="s">
+    <row r="35" s="7" customFormat="1" spans="1:4">
+      <c r="A35" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D35" s="7">
         <f>SUM(D5:D34)</f>
         <v>35</v>
       </c>
@@ -2368,178 +2392,184 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="32.875" customWidth="1"/>
     <col min="2" max="2" width="62.125" customWidth="1"/>
     <col min="3" max="3" width="18.625" customWidth="1"/>
     <col min="5" max="5" width="30.125" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
+    <row r="1" s="1" customFormat="1" ht="18" spans="1:6">
+      <c r="A1" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
+    <row r="2" ht="18" spans="1:6">
+      <c r="A2" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="4">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
+    <row r="3" ht="18" spans="1:6">
+      <c r="A3" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="4">
         <v>30</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="4">
         <v>2</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="5" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
+    <row r="4" ht="18" spans="1:6">
+      <c r="A4" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="4">
         <v>5</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="5" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
+    <row r="5" ht="18" spans="1:6">
+      <c r="A5" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="4">
         <v>4</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="5" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
+    <row r="6" ht="18" spans="1:6">
+      <c r="A6" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="4">
         <v>3</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="5" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
+    <row r="7" ht="18" spans="1:6">
+      <c r="A7" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="4">
         <v>6</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
+    <row r="8" ht="18" spans="1:6">
+      <c r="A8" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="4">
         <v>30</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="4">
         <v>0</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="5" t="s">
         <v>115</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/游戏设计.xlsx
+++ b/游戏设计.xlsx
@@ -1,22 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24430"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saier\Desktop\Mantis\Project1\Project1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{076ADA15-C68C-470E-B461-40A68882AF51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12540" activeTab="2"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="机制" sheetId="1" r:id="rId1"/>
     <sheet name="任务" sheetId="2" r:id="rId2"/>
     <sheet name="activity" sheetId="3" r:id="rId3"/>
+    <sheet name="猫种类" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="141">
   <si>
     <t>机制 feature</t>
   </si>
@@ -367,19 +383,109 @@
   </si>
   <si>
     <t>idle:walkaround/stay/change room</t>
+  </si>
+  <si>
+    <t>编号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>外观</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动速度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>易饥饿程度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>易厕所程度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>警戒范围</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>橘猫</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>白猫</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>难度评估</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>简单</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>低</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>布偶猫</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中等</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>困难</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱吃爱拉，因为太胖走得慢</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>豹猫</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱吃爱拉，但是比橘猫敏捷</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>身手灵活，且十分警觉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>温顺跑得不快，但比较警觉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>美短猫</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">中规中矩的猫 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -391,154 +497,25 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="46">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -547,13 +524,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.8"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.4"/>
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -565,49 +542,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.4"/>
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.6"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.6"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.8"/>
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.4"/>
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.4"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.6"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -619,198 +596,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.8"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.6"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -818,255 +633,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1130,62 +703,39 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1443,26 +993,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:F27"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="F3" sqref="F3:F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47.3333333333333" customWidth="1"/>
-    <col min="4" max="4" width="18.25" customWidth="1"/>
-    <col min="5" max="5" width="50.4416666666667" customWidth="1"/>
+    <col min="1" max="1" width="47.33203125" customWidth="1"/>
+    <col min="4" max="4" width="18.21875" customWidth="1"/>
+    <col min="5" max="5" width="50.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" s="14" customFormat="1" spans="1:6">
+    <row r="2" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
@@ -1482,7 +1032,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1502,7 +1052,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1522,7 +1072,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>13</v>
       </c>
@@ -1539,7 +1089,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>17</v>
       </c>
@@ -1559,7 +1109,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>20</v>
       </c>
@@ -1579,7 +1129,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>22</v>
       </c>
@@ -1599,7 +1149,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -1616,7 +1166,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -1633,7 +1183,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -1650,7 +1200,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -1667,7 +1217,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -1687,7 +1237,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -1704,7 +1254,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>32</v>
       </c>
@@ -1724,7 +1274,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>34</v>
       </c>
@@ -1744,7 +1294,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>36</v>
       </c>
@@ -1764,7 +1314,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -1784,7 +1334,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>40</v>
       </c>
@@ -1804,7 +1354,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
         <v>43</v>
       </c>
@@ -1824,7 +1374,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
         <v>45</v>
       </c>
@@ -1844,7 +1394,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
         <v>47</v>
       </c>
@@ -1864,7 +1414,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
         <v>49</v>
       </c>
@@ -1884,7 +1434,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="17" t="s">
         <v>51</v>
       </c>
@@ -1904,7 +1454,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="17" t="s">
         <v>53</v>
       </c>
@@ -1924,7 +1474,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="17" t="s">
         <v>55</v>
       </c>
@@ -1944,7 +1494,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="17" t="s">
         <v>57</v>
       </c>
@@ -1965,31 +1515,30 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.625" customWidth="1"/>
-    <col min="2" max="2" width="29.5" customWidth="1"/>
-    <col min="3" max="3" width="28.75" customWidth="1"/>
-    <col min="4" max="4" width="18.625" customWidth="1"/>
-    <col min="5" max="5" width="37.5" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" customWidth="1"/>
+    <col min="2" max="2" width="29.44140625" customWidth="1"/>
+    <col min="3" max="3" width="28.77734375" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" customWidth="1"/>
+    <col min="5" max="5" width="37.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>59</v>
       </c>
@@ -2006,7 +1555,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>61</v>
       </c>
@@ -2023,7 +1572,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>61</v>
       </c>
@@ -2040,7 +1589,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>61</v>
       </c>
@@ -2057,7 +1606,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>66</v>
       </c>
@@ -2071,7 +1620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>67</v>
       </c>
@@ -2085,7 +1634,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>68</v>
       </c>
@@ -2099,7 +1648,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>69</v>
       </c>
@@ -2113,7 +1662,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>70</v>
       </c>
@@ -2127,7 +1676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>71</v>
       </c>
@@ -2141,7 +1690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>72</v>
       </c>
@@ -2155,7 +1704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>73</v>
       </c>
@@ -2169,7 +1718,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>74</v>
       </c>
@@ -2183,7 +1732,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>75</v>
       </c>
@@ -2197,7 +1746,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>76</v>
       </c>
@@ -2211,7 +1760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>77</v>
       </c>
@@ -2225,7 +1774,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>78</v>
       </c>
@@ -2239,7 +1788,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>79</v>
       </c>
@@ -2253,7 +1802,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>80</v>
       </c>
@@ -2267,7 +1816,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>81</v>
       </c>
@@ -2281,7 +1830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>82</v>
       </c>
@@ -2295,7 +1844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>83</v>
       </c>
@@ -2312,7 +1861,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>85</v>
       </c>
@@ -2329,7 +1878,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>86</v>
       </c>
@@ -2340,7 +1889,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>87</v>
       </c>
@@ -2351,7 +1900,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>88</v>
       </c>
@@ -2362,7 +1911,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>89</v>
       </c>
@@ -2373,7 +1922,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="35" s="7" customFormat="1" spans="1:4">
+    <row r="35" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>90</v>
       </c>
@@ -2383,31 +1932,30 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.875" customWidth="1"/>
-    <col min="2" max="2" width="62.125" customWidth="1"/>
-    <col min="3" max="3" width="18.625" customWidth="1"/>
-    <col min="5" max="5" width="30.125" customWidth="1"/>
+    <col min="1" max="1" width="32.88671875" customWidth="1"/>
+    <col min="2" max="2" width="62.109375" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" customWidth="1"/>
+    <col min="5" max="5" width="30.109375" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="18" spans="1:6">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>91</v>
       </c>
@@ -2427,7 +1975,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="2" ht="18" spans="1:6">
+    <row r="2" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>97</v>
       </c>
@@ -2447,7 +1995,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="3" ht="18" spans="1:6">
+    <row r="3" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>102</v>
       </c>
@@ -2467,7 +2015,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="4" ht="18" spans="1:6">
+    <row r="4" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>105</v>
       </c>
@@ -2487,7 +2035,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="5" ht="18" spans="1:6">
+    <row r="5" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>108</v>
       </c>
@@ -2507,7 +2055,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="6" ht="18" spans="1:6">
+    <row r="6" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>110</v>
       </c>
@@ -2527,7 +2075,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="7" ht="18" spans="1:6">
+    <row r="7" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>112</v>
       </c>
@@ -2547,7 +2095,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" ht="18" spans="1:6">
+    <row r="8" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>114</v>
       </c>
@@ -2567,13 +2115,192 @@
         <v>115</v>
       </c>
     </row>
-    <row r="14" spans="2:2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>116</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{131CD8FB-5E3B-472B-80BB-BEA2D863D68A}">
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.33203125" style="22" customWidth="1"/>
+    <col min="3" max="6" width="12.77734375" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" customWidth="1"/>
+    <col min="8" max="8" width="29.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="H1" s="24" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="22">
+        <v>1</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="F2" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="G2" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="22">
+        <v>2</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="G3" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="H3" s="21" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="22">
+        <v>3</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="F4" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="G4" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="22">
+        <v>4</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="F5" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="G5" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="H5" s="21" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="22">
+        <v>5</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="F6" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="G6" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="H6" s="21" t="s">
+        <v>137</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/游戏设计.xlsx
+++ b/游戏设计.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24430"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saier\Desktop\Mantis\Project1\Project1\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{076ADA15-C68C-470E-B461-40A68882AF51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="24225" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="机制" sheetId="1" r:id="rId1"/>
@@ -18,21 +12,12 @@
     <sheet name="activity" sheetId="3" r:id="rId3"/>
     <sheet name="猫种类" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="145">
   <si>
     <t>机制 feature</t>
   </si>
@@ -325,6 +310,9 @@
     <t>duration</t>
   </si>
   <si>
+    <t>id</t>
+  </si>
+  <si>
     <t>walkaround</t>
   </si>
   <si>
@@ -340,6 +328,9 @@
     <t>6~10</t>
   </si>
   <si>
+    <t>walk</t>
+  </si>
+  <si>
     <t>change room</t>
   </si>
   <si>
@@ -349,6 +340,9 @@
     <t>/</t>
   </si>
   <si>
+    <t>change</t>
+  </si>
+  <si>
     <t>go toilet</t>
   </si>
   <si>
@@ -358,134 +352,126 @@
     <t>action done</t>
   </si>
   <si>
+    <t>toilet</t>
+  </si>
+  <si>
     <t>go eat</t>
   </si>
   <si>
     <t>eat bar full</t>
   </si>
   <si>
+    <t>eat</t>
+  </si>
+  <si>
     <t>check nearby things</t>
   </si>
   <si>
     <t>trigger after idle &amp;&amp; has item nearby</t>
   </si>
   <si>
+    <t>item</t>
+  </si>
+  <si>
     <t>alert run</t>
   </si>
   <si>
     <t>human detected</t>
   </si>
   <si>
+    <t>3.5-4.5</t>
+  </si>
+  <si>
+    <t>run</t>
+  </si>
+  <si>
     <t>stay</t>
   </si>
   <si>
-    <t>5~9</t>
+    <t>4~9</t>
   </si>
   <si>
     <t>idle:walkaround/stay/change room</t>
   </si>
   <si>
     <t>编号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>外观</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>移动速度</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>易饥饿程度</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>易厕所程度</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>警戒范围</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>难度评估</t>
   </si>
   <si>
     <t>橘猫</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>低</t>
+  </si>
+  <si>
+    <t>高</t>
+  </si>
+  <si>
+    <t>爱吃爱拉，因为太胖走得慢</t>
   </si>
   <si>
     <t>白猫</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>难度评估</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>简单</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>高</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>低</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>中</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱吃爱拉，但是比橘猫敏捷</t>
+  </si>
+  <si>
+    <t>美短猫</t>
+  </si>
+  <si>
+    <t xml:space="preserve">中规中矩的猫 </t>
   </si>
   <si>
     <t>布偶猫</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>中等</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>困难</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>爱吃爱拉，因为太胖走得慢</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>温顺跑得不快，但比较警觉</t>
   </si>
   <si>
     <t>豹猫</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>爱吃爱拉，但是比橘猫敏捷</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>身手灵活，且十分警觉</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>温顺跑得不快，但比较警觉</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>美短猫</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">中规中矩的猫 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -497,25 +483,154 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="19">
+  <fills count="48">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -524,13 +639,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -542,49 +675,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39994506668294322"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -596,36 +723,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="-0.249977111117893"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -633,109 +922,389 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="39" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="39" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -993,53 +1562,53 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A2:F27"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="F3" sqref="F3:F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="47.33203125" customWidth="1"/>
-    <col min="4" max="4" width="18.21875" customWidth="1"/>
-    <col min="5" max="5" width="50.44140625" customWidth="1"/>
+    <col min="1" max="1" width="47.3333333333333" customWidth="1"/>
+    <col min="4" max="4" width="18.2166666666667" customWidth="1"/>
+    <col min="5" max="5" width="50.4416666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+    <row r="2" s="19" customFormat="1" spans="1:6">
+      <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="19" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="20" t="s">
         <v>8</v>
       </c>
       <c r="D3">
@@ -1048,18 +1617,18 @@
       <c r="E3" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="21" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="20" t="s">
         <v>8</v>
       </c>
       <c r="D4">
@@ -1068,163 +1637,163 @@
       <c r="E4" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="21" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
+    <row r="5" spans="1:6">
+      <c r="A5" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="21" t="s">
         <v>15</v>
       </c>
       <c r="D5">
         <v>2</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="23" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
+    <row r="6" spans="1:6">
+      <c r="A6" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="21" t="s">
         <v>15</v>
       </c>
       <c r="D6">
         <v>3</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="21" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
+    <row r="7" spans="1:6">
+      <c r="A7" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="21" t="s">
         <v>15</v>
       </c>
       <c r="D7">
         <v>3</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="F7" s="21" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
+    <row r="8" spans="1:6">
+      <c r="A8" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="24" t="s">
         <v>23</v>
       </c>
       <c r="D8">
         <v>2</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="E8" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="F8" s="21" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="20" t="s">
         <v>8</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="21" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="24" t="s">
         <v>23</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="F10" s="21" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="21" t="s">
         <v>15</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
-      <c r="F11" s="18" t="s">
+      <c r="F11" s="23" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="21" t="s">
         <v>15</v>
       </c>
       <c r="D12">
         <v>2</v>
       </c>
-      <c r="F12" s="16" t="s">
+      <c r="F12" s="21" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="21" t="s">
         <v>15</v>
       </c>
       <c r="D13">
@@ -1233,35 +1802,35 @@
       <c r="E13" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="16" t="s">
+      <c r="F13" s="21" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="24" t="s">
         <v>23</v>
       </c>
       <c r="D14">
         <v>3</v>
       </c>
-      <c r="F14" s="18" t="s">
+      <c r="F14" s="23" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="21" t="s">
         <v>15</v>
       </c>
       <c r="D15">
@@ -1270,18 +1839,18 @@
       <c r="E15" t="s">
         <v>33</v>
       </c>
-      <c r="F15" s="18" t="s">
+      <c r="F15" s="23" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="24" t="s">
         <v>23</v>
       </c>
       <c r="D16">
@@ -1290,18 +1859,18 @@
       <c r="E16" t="s">
         <v>35</v>
       </c>
-      <c r="F16" s="16" t="s">
+      <c r="F16" s="21" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="21" t="s">
         <v>15</v>
       </c>
       <c r="D17">
@@ -1310,18 +1879,18 @@
       <c r="E17" t="s">
         <v>37</v>
       </c>
-      <c r="F17" s="16" t="s">
+      <c r="F17" s="21" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="21" t="s">
         <v>15</v>
       </c>
       <c r="D18">
@@ -1330,239 +1899,240 @@
       <c r="E18" t="s">
         <v>39</v>
       </c>
-      <c r="F18" s="18" t="s">
+      <c r="F18" s="23" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>40</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="C19" s="24" t="s">
         <v>23</v>
       </c>
       <c r="D19">
         <v>5</v>
       </c>
-      <c r="E19" s="17" t="s">
+      <c r="E19" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="F19" s="20" t="s">
+      <c r="F19" s="25" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="17" t="s">
+    <row r="20" spans="1:6">
+      <c r="A20" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="C20" s="24" t="s">
         <v>23</v>
       </c>
       <c r="D20">
         <v>2</v>
       </c>
-      <c r="E20" s="17" t="s">
+      <c r="E20" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="F20" s="16" t="s">
+      <c r="F20" s="21" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="17" t="s">
+    <row r="21" spans="1:6">
+      <c r="A21" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="C21" s="24" t="s">
         <v>23</v>
       </c>
       <c r="D21">
         <v>2</v>
       </c>
-      <c r="E21" s="17" t="s">
+      <c r="E21" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="F21" s="18" t="s">
+      <c r="F21" s="23" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="17" t="s">
+    <row r="22" spans="1:6">
+      <c r="A22" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C22" s="21" t="s">
         <v>15</v>
       </c>
       <c r="D22">
         <v>3</v>
       </c>
-      <c r="E22" s="17" t="s">
+      <c r="E22" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="F22" s="18" t="s">
+      <c r="F22" s="23" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="17" t="s">
+    <row r="23" spans="1:6">
+      <c r="A23" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="19" t="s">
+      <c r="C23" s="24" t="s">
         <v>23</v>
       </c>
       <c r="D23">
         <v>2</v>
       </c>
-      <c r="E23" s="17" t="s">
+      <c r="E23" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="F23" s="20" t="s">
+      <c r="F23" s="25" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="17" t="s">
+    <row r="24" spans="1:6">
+      <c r="A24" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="15" t="s">
+      <c r="C24" s="20" t="s">
         <v>8</v>
       </c>
       <c r="D24">
         <v>4</v>
       </c>
-      <c r="E24" s="17" t="s">
+      <c r="E24" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="F24" s="20" t="s">
+      <c r="F24" s="25" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="17" t="s">
+    <row r="25" spans="1:6">
+      <c r="A25" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="16" t="s">
+      <c r="C25" s="21" t="s">
         <v>15</v>
       </c>
       <c r="D25">
         <v>2</v>
       </c>
-      <c r="E25" s="17" t="s">
+      <c r="E25" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="F25" s="18" t="s">
+      <c r="F25" s="23" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="17" t="s">
+    <row r="26" spans="1:6">
+      <c r="A26" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="C26" s="21" t="s">
         <v>15</v>
       </c>
       <c r="D26">
         <v>2</v>
       </c>
-      <c r="E26" s="17" t="s">
+      <c r="E26" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="F26" s="18" t="s">
+      <c r="F26" s="23" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="17" t="s">
+    <row r="27" spans="1:6">
+      <c r="A27" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="C27" s="21" t="s">
         <v>15</v>
       </c>
       <c r="D27">
         <v>2</v>
       </c>
-      <c r="E27" s="17" t="s">
+      <c r="E27" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="F27" s="18" t="s">
+      <c r="F27" s="23" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" customWidth="1"/>
-    <col min="2" max="2" width="29.44140625" customWidth="1"/>
-    <col min="3" max="3" width="28.77734375" customWidth="1"/>
-    <col min="4" max="4" width="18.6640625" customWidth="1"/>
-    <col min="5" max="5" width="37.44140625" customWidth="1"/>
+    <col min="1" max="1" width="21.6666666666667" customWidth="1"/>
+    <col min="2" max="2" width="29.4416666666667" customWidth="1"/>
+    <col min="3" max="3" width="28.775" customWidth="1"/>
+    <col min="4" max="4" width="18.6666666666667" customWidth="1"/>
+    <col min="5" max="5" width="37.4416666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="13" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="8" t="s">
         <v>62</v>
       </c>
       <c r="D2">
@@ -1572,14 +2142,14 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="16" t="s">
         <v>64</v>
       </c>
       <c r="D3">
@@ -1589,14 +2159,14 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="18" t="s">
         <v>65</v>
       </c>
       <c r="D4">
@@ -1606,252 +2176,252 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>66</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="8" t="s">
         <v>62</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>67</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="8" t="s">
         <v>62</v>
       </c>
       <c r="D6">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>68</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="8" t="s">
         <v>62</v>
       </c>
       <c r="D7">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>69</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="16" t="s">
         <v>64</v>
       </c>
       <c r="D8">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>70</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="8" t="s">
         <v>62</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>71</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="8" t="s">
         <v>62</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>72</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="8" t="s">
         <v>62</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>73</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="16" t="s">
         <v>64</v>
       </c>
       <c r="D12">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>74</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="18" t="s">
         <v>65</v>
       </c>
       <c r="D13">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>75</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="8" t="s">
         <v>62</v>
       </c>
       <c r="D14">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>76</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="8" t="s">
         <v>62</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>77</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="18" t="s">
         <v>65</v>
       </c>
       <c r="D16">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>78</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="16" t="s">
         <v>64</v>
       </c>
       <c r="D17">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>79</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="16" t="s">
         <v>64</v>
       </c>
       <c r="D18">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>80</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="8" t="s">
         <v>62</v>
       </c>
       <c r="D19">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>81</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="8" t="s">
         <v>62</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>82</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="8" t="s">
         <v>62</v>
       </c>
       <c r="D21">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>83</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="8" t="s">
         <v>62</v>
       </c>
       <c r="D22">
@@ -1861,14 +2431,14 @@
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>85</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="8" t="s">
         <v>62</v>
       </c>
       <c r="D23">
@@ -1878,429 +2448,455 @@
         <v>84</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>86</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C25" s="16" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>87</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="18" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>88</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="16" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>89</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C28" s="16" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="35" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="7" t="s">
+    <row r="35" s="12" customFormat="1" spans="1:4">
+      <c r="A35" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="D35" s="7">
+      <c r="D35" s="12">
         <f>SUM(D5:D34)</f>
         <v>35</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="32.88671875" customWidth="1"/>
-    <col min="2" max="2" width="62.109375" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" customWidth="1"/>
-    <col min="5" max="5" width="30.109375" customWidth="1"/>
+    <col min="1" max="1" width="32.8833333333333" customWidth="1"/>
+    <col min="2" max="2" width="62.1083333333333" customWidth="1"/>
+    <col min="3" max="3" width="18.6666666666667" customWidth="1"/>
+    <col min="5" max="5" width="30.1083333333333" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="8" customFormat="1" ht="18" spans="1:7">
+      <c r="A1" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="9" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="G1" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="B2" s="3" t="s">
+    </row>
+    <row r="2" ht="18" spans="1:7">
+      <c r="A2" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="D2" s="4">
+      <c r="C2" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2" s="10">
         <v>1</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="F2" s="5" t="s">
+      <c r="E2" s="10" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="F2" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C3" s="4">
+      <c r="G2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" ht="18" spans="1:7">
+      <c r="A3" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" s="10">
         <v>30</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="10">
         <v>2</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="E3" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="F3" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D4" s="4">
+      <c r="G3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" ht="18" spans="1:7">
+      <c r="A4" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="D4" s="10">
         <v>5</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D5" s="4">
+      <c r="E4" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" ht="18" spans="1:7">
+      <c r="A5" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="D5" s="10">
         <v>4</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="E5" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D6" s="4">
+      <c r="F5" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" ht="18" spans="1:7">
+      <c r="A6" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="D6" s="10">
         <v>3</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D7" s="4">
+      <c r="E6" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" ht="18" spans="1:7">
+      <c r="A7" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="D7" s="10">
         <v>6</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="F7" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C8" s="4">
+      <c r="E7" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="G7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8" ht="18" spans="1:7">
+      <c r="A8" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8" s="10">
         <v>30</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="10">
         <v>0</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E8" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="G8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2">
       <c r="B14" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{131CD8FB-5E3B-472B-80BB-BEA2D863D68A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="6.33203125" style="22" customWidth="1"/>
-    <col min="3" max="6" width="12.77734375" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" customWidth="1"/>
-    <col min="8" max="8" width="29.5546875" customWidth="1"/>
+    <col min="1" max="1" width="6.33333333333333" style="1" customWidth="1"/>
+    <col min="3" max="6" width="12.775" customWidth="1"/>
+    <col min="7" max="7" width="9.66666666666667" customWidth="1"/>
+    <col min="8" max="8" width="29.5583333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>119</v>
-      </c>
-      <c r="D1" s="24" t="s">
-        <v>120</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="F1" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="G1" s="24" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="B1" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="22">
-        <v>1</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="C2" s="27" t="s">
-        <v>128</v>
-      </c>
-      <c r="D2" s="27" t="s">
-        <v>127</v>
-      </c>
-      <c r="E2" s="27" t="s">
-        <v>127</v>
-      </c>
-      <c r="F2" s="27" t="s">
-        <v>128</v>
-      </c>
-      <c r="G2" s="27" t="s">
-        <v>126</v>
-      </c>
-      <c r="H2" s="21" t="s">
+      <c r="D2" s="5" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="22">
+      <c r="E2" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="21" t="s">
-        <v>124</v>
-      </c>
-      <c r="C3" s="26" t="s">
-        <v>129</v>
-      </c>
-      <c r="D3" s="27" t="s">
-        <v>127</v>
-      </c>
-      <c r="E3" s="27" t="s">
-        <v>127</v>
-      </c>
-      <c r="F3" s="26" t="s">
-        <v>129</v>
-      </c>
-      <c r="G3" s="26" t="s">
-        <v>131</v>
-      </c>
-      <c r="H3" s="21" t="s">
+      <c r="B3" s="4" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="22">
+      <c r="C3" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C4" s="26" t="s">
-        <v>129</v>
-      </c>
-      <c r="D4" s="26" t="s">
-        <v>129</v>
-      </c>
-      <c r="E4" s="26" t="s">
-        <v>129</v>
-      </c>
-      <c r="F4" s="26" t="s">
-        <v>129</v>
-      </c>
-      <c r="G4" s="26" t="s">
-        <v>131</v>
-      </c>
-      <c r="H4" s="21" t="s">
+      <c r="C4" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="22">
+    <row r="5" spans="1:8">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="21" t="s">
-        <v>130</v>
-      </c>
-      <c r="C5" s="26" t="s">
-        <v>129</v>
-      </c>
-      <c r="D5" s="26" t="s">
-        <v>129</v>
-      </c>
-      <c r="E5" s="25" t="s">
-        <v>128</v>
-      </c>
-      <c r="F5" s="25" t="s">
-        <v>127</v>
-      </c>
-      <c r="G5" s="25" t="s">
-        <v>132</v>
-      </c>
-      <c r="H5" s="21" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="22">
+      <c r="B5" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="21" t="s">
-        <v>135</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>127</v>
-      </c>
-      <c r="D6" s="25" t="s">
-        <v>128</v>
-      </c>
-      <c r="E6" s="25" t="s">
-        <v>128</v>
-      </c>
-      <c r="F6" s="25" t="s">
-        <v>127</v>
-      </c>
-      <c r="G6" s="25" t="s">
-        <v>132</v>
-      </c>
-      <c r="H6" s="21" t="s">
-        <v>137</v>
+      <c r="B6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/游戏设计.xlsx
+++ b/游戏设计.xlsx
@@ -459,19 +459,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -486,6 +479,13 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -495,7 +495,51 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -510,16 +554,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -533,22 +578,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -561,46 +591,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -624,13 +617,13 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="48">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -729,7 +722,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -741,7 +788,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -753,163 +830,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -923,13 +850,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -939,30 +870,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -997,16 +904,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1020,6 +927,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1028,183 +955,183 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="39" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="39" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
@@ -1235,9 +1162,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1">
@@ -1571,7 +1495,7 @@
   <dimension ref="A2:F27"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:F24"/>
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1642,7 +1566,7 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="17" t="s">
@@ -1654,12 +1578,12 @@
       <c r="D5">
         <v>2</v>
       </c>
-      <c r="F5" s="23" t="s">
+      <c r="F5" s="22" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B6" s="14" t="s">
@@ -1671,7 +1595,7 @@
       <c r="D6">
         <v>3</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F6" s="21" t="s">
@@ -1679,7 +1603,7 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B7" s="14" t="s">
@@ -1691,7 +1615,7 @@
       <c r="D7">
         <v>3</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F7" s="21" t="s">
@@ -1699,19 +1623,19 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B8" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="23" t="s">
         <v>23</v>
       </c>
       <c r="D8">
         <v>2</v>
       </c>
-      <c r="E8" s="22" t="s">
+      <c r="E8" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F8" s="21" t="s">
@@ -1742,7 +1666,7 @@
       <c r="B10" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="23" t="s">
         <v>23</v>
       </c>
       <c r="D10">
@@ -1765,7 +1689,7 @@
       <c r="D11">
         <v>1</v>
       </c>
-      <c r="F11" s="23" t="s">
+      <c r="F11" s="22" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1813,13 +1737,13 @@
       <c r="B14" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="C14" s="23" t="s">
         <v>23</v>
       </c>
       <c r="D14">
         <v>3</v>
       </c>
-      <c r="F14" s="23" t="s">
+      <c r="F14" s="22" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1839,7 +1763,7 @@
       <c r="E15" t="s">
         <v>33</v>
       </c>
-      <c r="F15" s="23" t="s">
+      <c r="F15" s="22" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1850,7 +1774,7 @@
       <c r="B16" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="24" t="s">
+      <c r="C16" s="23" t="s">
         <v>23</v>
       </c>
       <c r="D16">
@@ -1899,7 +1823,7 @@
       <c r="E18" t="s">
         <v>39</v>
       </c>
-      <c r="F18" s="23" t="s">
+      <c r="F18" s="22" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1910,33 +1834,33 @@
       <c r="B19" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="24" t="s">
+      <c r="C19" s="23" t="s">
         <v>23</v>
       </c>
       <c r="D19">
         <v>5</v>
       </c>
-      <c r="E19" s="22" t="s">
+      <c r="E19" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F19" s="25" t="s">
+      <c r="F19" s="24" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B20" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="24" t="s">
+      <c r="C20" s="23" t="s">
         <v>23</v>
       </c>
       <c r="D20">
         <v>2</v>
       </c>
-      <c r="E20" s="22" t="s">
+      <c r="E20" s="4" t="s">
         <v>44</v>
       </c>
       <c r="F20" s="21" t="s">
@@ -1944,27 +1868,27 @@
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="22" t="s">
+      <c r="A21" s="4" t="s">
         <v>45</v>
       </c>
       <c r="B21" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="24" t="s">
+      <c r="C21" s="23" t="s">
         <v>23</v>
       </c>
       <c r="D21">
         <v>2</v>
       </c>
-      <c r="E21" s="22" t="s">
+      <c r="E21" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F21" s="23" t="s">
+      <c r="F21" s="22" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="22" t="s">
+      <c r="A22" s="4" t="s">
         <v>47</v>
       </c>
       <c r="B22" s="17" t="s">
@@ -1976,35 +1900,35 @@
       <c r="D22">
         <v>3</v>
       </c>
-      <c r="E22" s="22" t="s">
+      <c r="E22" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F22" s="23" t="s">
+      <c r="F22" s="22" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="22" t="s">
+      <c r="A23" s="4" t="s">
         <v>49</v>
       </c>
       <c r="B23" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="24" t="s">
+      <c r="C23" s="23" t="s">
         <v>23</v>
       </c>
       <c r="D23">
         <v>2</v>
       </c>
-      <c r="E23" s="22" t="s">
+      <c r="E23" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="F23" s="25" t="s">
+      <c r="F23" s="24" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="22" t="s">
+      <c r="A24" s="4" t="s">
         <v>51</v>
       </c>
       <c r="B24" s="17" t="s">
@@ -2016,15 +1940,15 @@
       <c r="D24">
         <v>4</v>
       </c>
-      <c r="E24" s="22" t="s">
+      <c r="E24" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="F24" s="25" t="s">
+      <c r="F24" s="24" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="22" t="s">
+      <c r="A25" s="4" t="s">
         <v>53</v>
       </c>
       <c r="B25" s="17" t="s">
@@ -2036,15 +1960,15 @@
       <c r="D25">
         <v>2</v>
       </c>
-      <c r="E25" s="22" t="s">
+      <c r="E25" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F25" s="23" t="s">
+      <c r="F25" s="22" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="22" t="s">
+      <c r="A26" s="4" t="s">
         <v>55</v>
       </c>
       <c r="B26" s="17" t="s">
@@ -2056,15 +1980,15 @@
       <c r="D26">
         <v>2</v>
       </c>
-      <c r="E26" s="22" t="s">
+      <c r="E26" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="F26" s="23" t="s">
+      <c r="F26" s="22" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="22" t="s">
+      <c r="A27" s="4" t="s">
         <v>57</v>
       </c>
       <c r="B27" s="17" t="s">
@@ -2076,10 +2000,10 @@
       <c r="D27">
         <v>2</v>
       </c>
-      <c r="E27" s="22" t="s">
+      <c r="E27" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="F27" s="23" t="s">
+      <c r="F27" s="22" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2511,13 +2435,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="32.8833333333333" customWidth="1"/>
     <col min="2" max="2" width="62.1083333333333" customWidth="1"/>
@@ -2560,7 +2484,7 @@
         <v>100</v>
       </c>
       <c r="D2" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>101</v>
@@ -2595,7 +2519,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="4" ht="18" spans="1:7">
+    <row r="4" ht="18" spans="1:8">
       <c r="A4" s="10" t="s">
         <v>108</v>
       </c>
@@ -2617,8 +2541,11 @@
       <c r="G4" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="5" ht="18" spans="1:7">
+      <c r="H4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" ht="18" spans="1:8">
       <c r="A5" s="10" t="s">
         <v>112</v>
       </c>
@@ -2639,6 +2566,9 @@
       </c>
       <c r="G5" t="s">
         <v>114</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
       </c>
     </row>
     <row r="6" ht="18" spans="1:7">
@@ -2664,7 +2594,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="7" ht="18" spans="1:7">
+    <row r="7" ht="18" spans="1:8">
       <c r="A7" s="10" t="s">
         <v>118</v>
       </c>
@@ -2685,6 +2615,9 @@
       </c>
       <c r="G7" t="s">
         <v>121</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
       </c>
     </row>
     <row r="8" ht="18" spans="1:7">
@@ -2695,10 +2628,10 @@
         <v>99</v>
       </c>
       <c r="C8" s="10">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D8" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>101</v>

--- a/游戏设计.xlsx
+++ b/游戏设计.xlsx
@@ -459,10 +459,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -480,15 +480,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -501,8 +493,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -510,7 +518,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -524,47 +555,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -576,24 +569,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -615,6 +593,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -622,6 +615,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="37">
     <fill>
@@ -722,13 +722,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -740,103 +758,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -847,6 +847,78 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -867,69 +939,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -938,15 +947,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -955,10 +955,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -967,16 +967,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -985,115 +985,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2438,7 +2438,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -2507,7 +2507,7 @@
         <v>30</v>
       </c>
       <c r="D3" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>105</v>
@@ -2530,7 +2530,7 @@
         <v>106</v>
       </c>
       <c r="D4" s="10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>110</v>
@@ -2556,7 +2556,7 @@
         <v>106</v>
       </c>
       <c r="D5" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>110</v>
@@ -2582,7 +2582,7 @@
         <v>106</v>
       </c>
       <c r="D6" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E6" s="10" t="s">
         <v>110</v>
@@ -2631,7 +2631,7 @@
         <v>40</v>
       </c>
       <c r="D8" s="10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>101</v>

--- a/游戏设计.xlsx
+++ b/游戏设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12540" activeTab="2"/>
+    <workbookView windowWidth="13835" windowHeight="3480" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="机制" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="147">
   <si>
     <t>机制 feature</t>
   </si>
@@ -424,15 +424,15 @@
     <t>高</t>
   </si>
   <si>
+    <t>中</t>
+  </si>
+  <si>
     <t>爱吃爱拉，因为太胖走得慢</t>
   </si>
   <si>
     <t>白猫</t>
   </si>
   <si>
-    <t>中</t>
-  </si>
-  <si>
     <t>爱吃爱拉，但是比橘猫敏捷</t>
   </si>
   <si>
@@ -448,7 +448,13 @@
     <t>温顺跑得不快，但比较警觉</t>
   </si>
   <si>
-    <t>豹猫</t>
+    <t>暹罗猫</t>
+  </si>
+  <si>
+    <t>快</t>
+  </si>
+  <si>
+    <t>大</t>
   </si>
   <si>
     <t>身手灵活，且十分警觉</t>
@@ -459,9 +465,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -479,6 +485,35 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -493,49 +528,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -547,10 +544,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -593,8 +591,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -608,22 +614,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -644,12 +650,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -722,121 +746,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -850,17 +874,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -876,15 +896,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -922,6 +933,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -937,13 +957,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -955,10 +979,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -967,34 +991,37 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1003,101 +1030,98 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1122,10 +1146,19 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1134,19 +1167,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
@@ -1161,13 +1185,22 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
@@ -1498,30 +1531,30 @@
       <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="47.3333333333333" customWidth="1"/>
-    <col min="4" max="4" width="18.2166666666667" customWidth="1"/>
-    <col min="5" max="5" width="50.4416666666667" customWidth="1"/>
+    <col min="4" max="4" width="18.212962962963" customWidth="1"/>
+    <col min="5" max="5" width="50.4444444444444" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" s="19" customFormat="1" spans="1:6">
-      <c r="A2" s="19" t="s">
+    <row r="2" s="22" customFormat="1" spans="1:6">
+      <c r="A2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="22" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1529,10 +1562,10 @@
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="23" t="s">
         <v>8</v>
       </c>
       <c r="D3">
@@ -1541,7 +1574,7 @@
       <c r="E3" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="24" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1549,10 +1582,10 @@
       <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="23" t="s">
         <v>8</v>
       </c>
       <c r="D4">
@@ -1561,7 +1594,7 @@
       <c r="E4" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="24" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1569,16 +1602,16 @@
       <c r="A5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="24" t="s">
         <v>15</v>
       </c>
       <c r="D5">
         <v>2</v>
       </c>
-      <c r="F5" s="22" t="s">
+      <c r="F5" s="25" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1586,10 +1619,10 @@
       <c r="A6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="24" t="s">
         <v>15</v>
       </c>
       <c r="D6">
@@ -1598,7 +1631,7 @@
       <c r="E6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="21" t="s">
+      <c r="F6" s="24" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1606,10 +1639,10 @@
       <c r="A7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="24" t="s">
         <v>15</v>
       </c>
       <c r="D7">
@@ -1618,7 +1651,7 @@
       <c r="E7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="21" t="s">
+      <c r="F7" s="24" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1626,10 +1659,10 @@
       <c r="A8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="26" t="s">
         <v>23</v>
       </c>
       <c r="D8">
@@ -1638,7 +1671,7 @@
       <c r="E8" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="21" t="s">
+      <c r="F8" s="24" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1646,16 +1679,16 @@
       <c r="A9" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="23" t="s">
         <v>8</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
-      <c r="F9" s="21" t="s">
+      <c r="F9" s="24" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1663,16 +1696,16 @@
       <c r="A10" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="26" t="s">
         <v>23</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
-      <c r="F10" s="21" t="s">
+      <c r="F10" s="24" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1680,16 +1713,16 @@
       <c r="A11" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="24" t="s">
         <v>15</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
-      <c r="F11" s="22" t="s">
+      <c r="F11" s="25" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1697,16 +1730,16 @@
       <c r="A12" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="24" t="s">
         <v>15</v>
       </c>
       <c r="D12">
         <v>2</v>
       </c>
-      <c r="F12" s="21" t="s">
+      <c r="F12" s="24" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1714,10 +1747,10 @@
       <c r="A13" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="24" t="s">
         <v>15</v>
       </c>
       <c r="D13">
@@ -1726,7 +1759,7 @@
       <c r="E13" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="21" t="s">
+      <c r="F13" s="24" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1734,16 +1767,16 @@
       <c r="A14" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="23" t="s">
+      <c r="C14" s="26" t="s">
         <v>23</v>
       </c>
       <c r="D14">
         <v>3</v>
       </c>
-      <c r="F14" s="22" t="s">
+      <c r="F14" s="25" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1751,10 +1784,10 @@
       <c r="A15" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="24" t="s">
         <v>15</v>
       </c>
       <c r="D15">
@@ -1763,7 +1796,7 @@
       <c r="E15" t="s">
         <v>33</v>
       </c>
-      <c r="F15" s="22" t="s">
+      <c r="F15" s="25" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1771,10 +1804,10 @@
       <c r="A16" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="C16" s="26" t="s">
         <v>23</v>
       </c>
       <c r="D16">
@@ -1783,7 +1816,7 @@
       <c r="E16" t="s">
         <v>35</v>
       </c>
-      <c r="F16" s="21" t="s">
+      <c r="F16" s="24" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1791,10 +1824,10 @@
       <c r="A17" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="C17" s="24" t="s">
         <v>15</v>
       </c>
       <c r="D17">
@@ -1803,7 +1836,7 @@
       <c r="E17" t="s">
         <v>37</v>
       </c>
-      <c r="F17" s="21" t="s">
+      <c r="F17" s="24" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1811,10 +1844,10 @@
       <c r="A18" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="21" t="s">
+      <c r="C18" s="24" t="s">
         <v>15</v>
       </c>
       <c r="D18">
@@ -1823,7 +1856,7 @@
       <c r="E18" t="s">
         <v>39</v>
       </c>
-      <c r="F18" s="22" t="s">
+      <c r="F18" s="25" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1831,10 +1864,10 @@
       <c r="A19" t="s">
         <v>40</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="C19" s="26" t="s">
         <v>23</v>
       </c>
       <c r="D19">
@@ -1843,7 +1876,7 @@
       <c r="E19" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F19" s="24" t="s">
+      <c r="F19" s="27" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1851,10 +1884,10 @@
       <c r="A20" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="23" t="s">
+      <c r="C20" s="26" t="s">
         <v>23</v>
       </c>
       <c r="D20">
@@ -1863,7 +1896,7 @@
       <c r="E20" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F20" s="21" t="s">
+      <c r="F20" s="24" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1871,10 +1904,10 @@
       <c r="A21" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="23" t="s">
+      <c r="C21" s="26" t="s">
         <v>23</v>
       </c>
       <c r="D21">
@@ -1883,7 +1916,7 @@
       <c r="E21" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F21" s="22" t="s">
+      <c r="F21" s="25" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1891,10 +1924,10 @@
       <c r="A22" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="21" t="s">
+      <c r="C22" s="24" t="s">
         <v>15</v>
       </c>
       <c r="D22">
@@ -1903,7 +1936,7 @@
       <c r="E22" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F22" s="22" t="s">
+      <c r="F22" s="25" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1911,10 +1944,10 @@
       <c r="A23" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B23" s="17" t="s">
+      <c r="B23" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="23" t="s">
+      <c r="C23" s="26" t="s">
         <v>23</v>
       </c>
       <c r="D23">
@@ -1923,7 +1956,7 @@
       <c r="E23" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="F23" s="24" t="s">
+      <c r="F23" s="27" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1931,10 +1964,10 @@
       <c r="A24" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="20" t="s">
+      <c r="C24" s="23" t="s">
         <v>8</v>
       </c>
       <c r="D24">
@@ -1943,7 +1976,7 @@
       <c r="E24" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="F24" s="24" t="s">
+      <c r="F24" s="27" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1951,10 +1984,10 @@
       <c r="A25" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="21" t="s">
+      <c r="C25" s="24" t="s">
         <v>15</v>
       </c>
       <c r="D25">
@@ -1963,7 +1996,7 @@
       <c r="E25" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F25" s="22" t="s">
+      <c r="F25" s="25" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1971,10 +2004,10 @@
       <c r="A26" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="21" t="s">
+      <c r="C26" s="24" t="s">
         <v>15</v>
       </c>
       <c r="D26">
@@ -1983,7 +2016,7 @@
       <c r="E26" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="F26" s="22" t="s">
+      <c r="F26" s="25" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1991,10 +2024,10 @@
       <c r="A27" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="21" t="s">
+      <c r="C27" s="24" t="s">
         <v>15</v>
       </c>
       <c r="D27">
@@ -2003,7 +2036,7 @@
       <c r="E27" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="F27" s="22" t="s">
+      <c r="F27" s="25" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2023,29 +2056,29 @@
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="21.6666666666667" customWidth="1"/>
-    <col min="2" max="2" width="29.4416666666667" customWidth="1"/>
-    <col min="3" max="3" width="28.775" customWidth="1"/>
+    <col min="2" max="2" width="29.4444444444444" customWidth="1"/>
+    <col min="3" max="3" width="28.7777777777778" customWidth="1"/>
     <col min="4" max="4" width="18.6666666666667" customWidth="1"/>
-    <col min="5" max="5" width="37.4416666666667" customWidth="1"/>
+    <col min="5" max="5" width="37.4444444444444" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="16" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2053,10 +2086,10 @@
       <c r="A2" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="11" t="s">
         <v>62</v>
       </c>
       <c r="D2">
@@ -2070,10 +2103,10 @@
       <c r="A3" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="19" t="s">
         <v>64</v>
       </c>
       <c r="D3">
@@ -2087,10 +2120,10 @@
       <c r="A4" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="21" t="s">
         <v>65</v>
       </c>
       <c r="D4">
@@ -2104,10 +2137,10 @@
       <c r="A5" t="s">
         <v>66</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="11" t="s">
         <v>62</v>
       </c>
       <c r="D5">
@@ -2118,10 +2151,10 @@
       <c r="A6" t="s">
         <v>67</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="11" t="s">
         <v>62</v>
       </c>
       <c r="D6">
@@ -2132,10 +2165,10 @@
       <c r="A7" t="s">
         <v>68</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="11" t="s">
         <v>62</v>
       </c>
       <c r="D7">
@@ -2146,10 +2179,10 @@
       <c r="A8" t="s">
         <v>69</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="19" t="s">
         <v>64</v>
       </c>
       <c r="D8">
@@ -2160,10 +2193,10 @@
       <c r="A9" t="s">
         <v>70</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="11" t="s">
         <v>62</v>
       </c>
       <c r="D9">
@@ -2174,10 +2207,10 @@
       <c r="A10" t="s">
         <v>71</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="11" t="s">
         <v>62</v>
       </c>
       <c r="D10">
@@ -2188,10 +2221,10 @@
       <c r="A11" t="s">
         <v>72</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="11" t="s">
         <v>62</v>
       </c>
       <c r="D11">
@@ -2202,10 +2235,10 @@
       <c r="A12" t="s">
         <v>73</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="19" t="s">
         <v>64</v>
       </c>
       <c r="D12">
@@ -2216,10 +2249,10 @@
       <c r="A13" t="s">
         <v>74</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="21" t="s">
         <v>65</v>
       </c>
       <c r="D13">
@@ -2230,10 +2263,10 @@
       <c r="A14" t="s">
         <v>75</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="11" t="s">
         <v>62</v>
       </c>
       <c r="D14">
@@ -2244,10 +2277,10 @@
       <c r="A15" t="s">
         <v>76</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="11" t="s">
         <v>62</v>
       </c>
       <c r="D15">
@@ -2258,10 +2291,10 @@
       <c r="A16" t="s">
         <v>77</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="21" t="s">
         <v>65</v>
       </c>
       <c r="D16">
@@ -2272,10 +2305,10 @@
       <c r="A17" t="s">
         <v>78</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="19" t="s">
         <v>64</v>
       </c>
       <c r="D17">
@@ -2286,10 +2319,10 @@
       <c r="A18" t="s">
         <v>79</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="19" t="s">
         <v>64</v>
       </c>
       <c r="D18">
@@ -2300,10 +2333,10 @@
       <c r="A19" t="s">
         <v>80</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="11" t="s">
         <v>62</v>
       </c>
       <c r="D19">
@@ -2314,10 +2347,10 @@
       <c r="A20" t="s">
         <v>81</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="11" t="s">
         <v>62</v>
       </c>
       <c r="D20">
@@ -2328,10 +2361,10 @@
       <c r="A21" t="s">
         <v>82</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="11" t="s">
         <v>62</v>
       </c>
       <c r="D21">
@@ -2342,10 +2375,10 @@
       <c r="A22" t="s">
         <v>83</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="11" t="s">
         <v>62</v>
       </c>
       <c r="D22">
@@ -2359,10 +2392,10 @@
       <c r="A23" t="s">
         <v>85</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="11" t="s">
         <v>62</v>
       </c>
       <c r="D23">
@@ -2376,10 +2409,10 @@
       <c r="A25" t="s">
         <v>86</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="16" t="s">
+      <c r="C25" s="19" t="s">
         <v>64</v>
       </c>
     </row>
@@ -2387,10 +2420,10 @@
       <c r="A26" t="s">
         <v>87</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="C26" s="21" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2398,10 +2431,10 @@
       <c r="A27" t="s">
         <v>88</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="C27" s="19" t="s">
         <v>64</v>
       </c>
     </row>
@@ -2409,18 +2442,18 @@
       <c r="A28" t="s">
         <v>89</v>
       </c>
-      <c r="B28" s="17" t="s">
+      <c r="B28" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="16" t="s">
+      <c r="C28" s="19" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="35" s="12" customFormat="1" spans="1:4">
-      <c r="A35" s="12" t="s">
+    <row r="35" s="15" customFormat="1" spans="1:4">
+      <c r="A35" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="D35" s="12">
+      <c r="D35" s="15">
         <f>SUM(D5:D34)</f>
         <v>35</v>
       </c>
@@ -2437,105 +2470,105 @@
   <sheetPr/>
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="32.8833333333333" customWidth="1"/>
-    <col min="2" max="2" width="62.1083333333333" customWidth="1"/>
+    <col min="1" max="1" width="32.8796296296296" customWidth="1"/>
+    <col min="2" max="2" width="62.1111111111111" customWidth="1"/>
     <col min="3" max="3" width="18.6666666666667" customWidth="1"/>
-    <col min="5" max="5" width="30.1083333333333" customWidth="1"/>
+    <col min="5" max="5" width="30.1111111111111" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="8" customFormat="1" ht="18" spans="1:7">
-      <c r="A1" s="9" t="s">
+    <row r="1" s="11" customFormat="1" ht="17.4" spans="1:7">
+      <c r="A1" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="11" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="2" ht="18" spans="1:7">
-      <c r="A2" s="10" t="s">
+    <row r="2" ht="17.4" spans="1:7">
+      <c r="A2" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="13">
         <v>0</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="14" t="s">
         <v>102</v>
       </c>
       <c r="G2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="3" ht="18" spans="1:7">
-      <c r="A3" s="10" t="s">
+    <row r="3" ht="17.4" spans="1:7">
+      <c r="A3" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="13">
         <v>30</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="13">
         <v>1</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="14" t="s">
         <v>106</v>
       </c>
       <c r="G3" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="4" ht="18" spans="1:8">
-      <c r="A4" s="10" t="s">
+    <row r="4" ht="17.4" spans="1:8">
+      <c r="A4" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="13">
         <v>4</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="14" t="s">
         <v>106</v>
       </c>
       <c r="G4" t="s">
@@ -2545,23 +2578,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" ht="18" spans="1:8">
-      <c r="A5" s="10" t="s">
+    <row r="5" ht="17.4" spans="1:8">
+      <c r="A5" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="13">
         <v>3</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="14" t="s">
         <v>106</v>
       </c>
       <c r="G5" t="s">
@@ -2571,46 +2604,46 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" ht="18" spans="1:7">
-      <c r="A6" s="10" t="s">
+    <row r="6" ht="17.4" spans="1:7">
+      <c r="A6" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="13">
         <v>2</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="14" t="s">
         <v>106</v>
       </c>
       <c r="G6" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="7" ht="18" spans="1:8">
-      <c r="A7" s="10" t="s">
+    <row r="7" ht="17.4" spans="1:8">
+      <c r="A7" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="13">
         <v>6</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="14" t="s">
         <v>120</v>
       </c>
       <c r="G7" t="s">
@@ -2620,23 +2653,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" ht="18" spans="1:7">
-      <c r="A8" s="10" t="s">
+    <row r="8" ht="17.4" spans="1:7">
+      <c r="A8" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="13">
         <v>40</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="13">
         <v>5</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="14" t="s">
         <v>123</v>
       </c>
       <c r="G8" t="s">
@@ -2659,16 +2692,16 @@
   <sheetPr/>
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="6.33333333333333" style="1" customWidth="1"/>
-    <col min="3" max="6" width="12.775" customWidth="1"/>
+    <col min="3" max="6" width="12.7777777777778" customWidth="1"/>
     <col min="7" max="7" width="9.66666666666667" customWidth="1"/>
-    <col min="8" max="8" width="29.5583333333333" customWidth="1"/>
+    <col min="8" max="8" width="29.5555555555556" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -2710,8 +2743,8 @@
       <c r="D2" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>134</v>
+      <c r="E2" s="6" t="s">
+        <v>135</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>133</v>
@@ -2720,7 +2753,7 @@
         <v>62</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2728,22 +2761,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>135</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>64</v>
+      <c r="F3" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>62</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>138</v>
@@ -2756,19 +2789,19 @@
       <c r="B4" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="G4" s="6" t="s">
+      <c r="C4" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="G4" s="8" t="s">
         <v>64</v>
       </c>
       <c r="H4" s="4" t="s">
@@ -2782,20 +2815,20 @@
       <c r="B5" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="C5" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="E5" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>65</v>
+      <c r="F5" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>64</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>142</v>
@@ -2808,23 +2841,23 @@
       <c r="B6" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="D6" s="7" t="s">
+      <c r="C6" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="G6" s="7" t="s">
+      <c r="F6" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="G6" s="10" t="s">
         <v>65</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
